--- a/biology/Botanique/Larsenianthus/Larsenianthus.xlsx
+++ b/biology/Botanique/Larsenianthus/Larsenianthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larsenianthus est un genre de quatre espèces de plantes herbacées de la famille des Zingiberaceae qui poussent de l'Himalaya oriental à la Birmanie (Myanmar).
-La première description du genre Larsenianthus a été faite en 2010 par une équipe de six chercheurs, W. John Kress, John D. Mood, Mamiyil Sabu, Linda M. Prince, Santanu Dey et E. Sanoj, décrivant les quatre espèces, dans une publication intitulée Larsenianthus, a new Asian genus of Gingers (Zingiberaceae) with four species[1].
+La première description du genre Larsenianthus a été faite en 2010 par une équipe de six chercheurs, W. John Kress, John D. Mood, Mamiyil Sabu, Linda M. Prince, Santanu Dey et E. Sanoj, décrivant les quatre espèces, dans une publication intitulée Larsenianthus, a new Asian genus of Gingers (Zingiberaceae) with four species.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011)[2] et NCBI  (19 sept 2011)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011) et NCBI  (19 sept 2011) :
 Larsenianthus arunachalensis M.Sabu, Sanoj &amp; Rajesh Kumar, (2010). Arunachal Pradesh
 Larsenianthus assamensis S.Dey, Mood &amp; S.Choudhury, (2010). Assam
 Larsenianthus careyanus (Benth.) W.J.Kress &amp; Mood,  (2010). Himalaya Est à Birmanie (Myanmar)
